--- a/data/processed/state_overviews/nevada_overview.xlsx
+++ b/data/processed/state_overviews/nevada_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>503</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Carson City</t>
         </is>
       </c>
-      <c r="B2">
-        <v>21</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Churchill County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Clark County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>265</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Douglas County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>14</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Elko County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>13</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Esmeralda County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Humboldt County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Lincoln County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Lyon County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>5</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Mineral County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>2</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Nye County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>5</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Pershing County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>3</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Storey County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>6</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Washoe County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>148</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -884,8 +914,10 @@
           <t>White Pine County</t>
         </is>
       </c>
-      <c r="B16">
-        <v>7</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -914,27 +946,29 @@
           <t>Eureka County</t>
         </is>
       </c>
-      <c r="B17">
-        <v>0</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -944,27 +978,61 @@
           <t>Lander County</t>
         </is>
       </c>
-      <c r="B18">
-        <v>0</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>$0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$1,252,051,703</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.25%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-23.82%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>73.76%</t>
         </is>
       </c>
     </row>
@@ -1019,8 +1087,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>96</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1049,8 +1119,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>228</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1079,8 +1151,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>89</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1109,8 +1183,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>90</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1139,8 +1215,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B6">
-        <v>503</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1214,8 +1292,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>138</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1244,8 +1324,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>169</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1274,8 +1356,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>79</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1304,8 +1388,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>39</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1334,8 +1420,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>62</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1364,8 +1452,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>16</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1394,8 +1484,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>503</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1469,8 +1561,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>41</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1499,8 +1593,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>72</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1529,8 +1625,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>35</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1559,8 +1657,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>72</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1589,8 +1689,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>7</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1619,8 +1721,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>147</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1649,8 +1753,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1679,8 +1785,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>2</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1709,8 +1817,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>41</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1739,8 +1849,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>4</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1769,8 +1881,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>75</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1799,8 +1913,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>4</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1829,8 +1945,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>503</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/nevada_overview.xlsx
+++ b/data/processed/state_overviews/nevada_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,327 +431,327 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Carson City</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$48,618,971</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.25%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-14.24%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Churchill County</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$10,294,157</t>
+          <t>$1,252,051,703</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.13%</t>
+          <t>7.25%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-21.23%</t>
+          <t>-23.82%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>73.76%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Clark County</t>
+          <t>Carson City</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$740,588,241</t>
+          <t>$48,618,971</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.58%</t>
+          <t>9.25%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-22.99%</t>
+          <t>-14.24%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71.70%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Douglas County</t>
+          <t>Churchill County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$35,871,942</t>
+          <t>$10,294,157</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>22.89%</t>
+          <t>10.13%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-24.02%</t>
+          <t>-21.23%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>71.43%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Elko County</t>
+          <t>Clark County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>265</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$8,152,510</t>
+          <t>$740,588,241</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-1.42%</t>
+          <t>6.58%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-48.97%</t>
+          <t>-22.99%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>84.62%</t>
+          <t>71.70%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Esmeralda County</t>
+          <t>Douglas County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$516,054</t>
+          <t>$35,871,942</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.26%</t>
+          <t>22.89%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.27%</t>
+          <t>-24.02%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>71.43%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Humboldt County</t>
+          <t>Elko County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$901,858</t>
+          <t>$8,152,510</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>-2.86%</t>
+          <t>-1.42%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-62.84%</t>
+          <t>-48.97%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>84.62%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lincoln County</t>
+          <t>Esmeralda County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$143,816</t>
+          <t>$516,054</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.15%</t>
+          <t>21.26%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-5.50%</t>
+          <t>7.27%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>50.00%</t>
+          <t>0.00%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lyon County</t>
+          <t>Humboldt County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$7,036,488</t>
+          <t>$901,858</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>12.74%</t>
+          <t>-2.86%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-4.16%</t>
+          <t>-62.84%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>80.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mineral County</t>
+          <t>Lincoln County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -761,29 +761,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$360,315</t>
+          <t>$143,816</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-0.44%</t>
+          <t>3.15%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-54.68%</t>
+          <t>-5.50%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>50.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nye County</t>
+          <t>Lyon County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -793,246 +793,214 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$5,418,508</t>
+          <t>$7,036,488</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>15.59%</t>
+          <t>12.74%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-46.20%</t>
+          <t>-4.16%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>80.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pershing County</t>
+          <t>Mineral County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$590,901</t>
+          <t>$360,315</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>29.73%</t>
+          <t>-0.44%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>26.56%</t>
+          <t>-54.68%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>33.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Storey County</t>
+          <t>Nye County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$18,066,978</t>
+          <t>$5,418,508</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17.19%</t>
+          <t>15.59%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-40.47%</t>
+          <t>-46.20%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>83.33%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Washoe County</t>
+          <t>Pershing County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$368,223,337</t>
+          <t>$590,901</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.29%</t>
+          <t>29.73%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-23.97%</t>
+          <t>26.56%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>76.35%</t>
+          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>White Pine County</t>
+          <t>Storey County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$7,267,627</t>
+          <t>$18,066,978</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>25.36%</t>
+          <t>17.19%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-13.92%</t>
+          <t>-40.47%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>85.71%</t>
+          <t>83.33%</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Eureka County</t>
+          <t>Washoe County</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$368,223,337</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>6.29%</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-23.97%</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>76.35%</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lander County</t>
+          <t>White Pine County</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>$0</t>
+          <t>$7,267,627</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>25.36%</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>-13.92%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>503</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>$1,252,051,703</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>7.25%</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>-23.82%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>73.76%</t>
+          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -1043,7 +1011,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1052,192 +1020,224 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$363,476,036</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.02%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-18.22%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Nevada</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>503</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$505,024,769</t>
+          <t>$1,252,051,703</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.69%</t>
+          <t>7.25%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-24.17%</t>
+          <t>-23.82%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>75.88%</t>
+          <t>73.76%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$174,410,418</t>
+          <t>$363,476,036</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.82%</t>
+          <t>5.02%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-11.22%</t>
+          <t>-18.22%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>62.92%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>228</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$209,140,480</t>
+          <t>$505,024,769</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.66%</t>
+          <t>7.69%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-37.39%</t>
+          <t>-24.17%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77.78%</t>
+          <t>75.88%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,252,051,703</t>
+          <t>$174,410,418</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.25%</t>
+          <t>9.82%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-23.82%</t>
+          <t>-11.22%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73.76%</t>
+          <t>62.92%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4th Congressional district</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$209,140,480</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.66%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>-37.39%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1262,34 +1262,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1321,128 +1321,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>62</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$200,633,658</t>
+          <t>$849,337,794</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.45%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-24.63%</t>
+          <t>-20.26%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>71.60%</t>
+          <t>77.42%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>169</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$26,552,057</t>
+          <t>$200,633,658</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>8.45%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-16.37%</t>
+          <t>-24.63%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>69.62%</t>
+          <t>71.60%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$154,867,529</t>
+          <t>$26,552,057</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.99%</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-38.20%</t>
+          <t>-16.37%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>69.62%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$849,337,794</t>
+          <t>$154,867,529</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-20.26%</t>
+          <t>-38.20%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>77.42%</t>
+          <t>76.92%</t>
         </is>
       </c>
     </row>
@@ -1531,34 +1531,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1622,7 +1622,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1654,7 +1654,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1718,7 +1718,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1750,7 +1750,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1782,160 +1782,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$633,363</t>
+          <t>$73,766,791</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>45.74%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-31.73%</t>
+          <t>-23.75%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>75.61%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$73,766,791</t>
+          <t>$140,770</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>9.69%</t>
+          <t>23.98%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-23.75%</t>
+          <t>19.39%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>75.61%</t>
+          <t>25.00%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$140,770</t>
+          <t>$633,363</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>23.98%</t>
+          <t>45.74%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>19.39%</t>
+          <t>-31.73%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$170,484,000</t>
+          <t>$10,545,434</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.45%</t>
+          <t>-8.76%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-31.42%</t>
+          <t>-35.44%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>77.33%</t>
+          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$10,545,434</t>
+          <t>$170,484,000</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>-8.76%</t>
+          <t>5.45%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-35.44%</t>
+          <t>-31.42%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>77.33%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/nevada_overview.xlsx
+++ b/data/processed/state_overviews/nevada_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>73.76%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>503</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$1,252,051,703</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>7.25%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-23.82%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>73.76%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>73.76%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>503</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,252,051,703</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.25%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-23.82%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>73.76%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$48,618,971</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>9.25%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-14.24%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$10,294,157</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>10.13%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-21.23%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>71.70%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>265</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$740,588,241</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>6.58%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-22.99%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>71.70%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>71.43%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>14</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$35,871,942</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>22.89%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-24.02%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>71.43%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>84.62%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$8,152,510</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>-1.42%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-48.97%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>84.62%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$516,054</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>21.26%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>7.27%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.00%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$901,858</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>-2.86%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-62.84%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$143,816</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>3.15%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-5.50%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>50.00%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>80.00%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$7,036,488</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>12.74%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-4.16%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>80.00%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$360,315</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>-0.44%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>-54.68%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$5,418,508</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>15.59%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-46.20%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>100.00%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$590,901</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>29.73%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>26.56%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>83.33%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>6</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$18,066,978</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>17.19%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-40.47%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>83.33%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>76.35%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>148</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$368,223,337</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>6.29%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-23.97%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>76.35%</t>
         </is>
       </c>
     </row>
@@ -980,27 +980,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>85.71%</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>$7,267,627</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>25.36%</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>-13.92%</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>85.71%</t>
         </is>
       </c>
     </row>
@@ -1025,27 +1025,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1057,27 +1057,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1089,155 +1089,155 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>73.76%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>503</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$1,252,051,703</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>7.25%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-23.82%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>73.76%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$363,476,036</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>5.02%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-18.22%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>75.88%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>228</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$505,024,769</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>7.69%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-24.17%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>75.88%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>62.92%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>89</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$174,410,418</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>9.82%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-11.22%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>62.92%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>77.78%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>90</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$209,140,480</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>5.66%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-37.39%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>77.78%</t>
         </is>
       </c>
     </row>
@@ -1262,187 +1262,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>76.09%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>138</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$19,458,476</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>8.20%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-21.80%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>76.09%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>71.60%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$849,337,794</t>
+          <t>169</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>$200,633,658</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-20.26%</t>
+          <t>8.45%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>77.42%</t>
+          <t>-24.63%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>69.62%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$200,633,658</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.45%</t>
+          <t>$26,552,057</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-24.63%</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>71.60%</t>
+          <t>-16.37%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>76.92%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$26,552,057</t>
+          <t>39</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.59%</t>
+          <t>$154,867,529</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-16.37%</t>
+          <t>4.99%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>69.62%</t>
+          <t>-38.20%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>77.42%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$154,867,529</t>
+          <t>62</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.99%</t>
+          <t>$849,337,794</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-38.20%</t>
+          <t>3.46%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>76.92%</t>
+          <t>-20.26%</t>
         </is>
       </c>
     </row>
@@ -1454,27 +1454,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$1,202,189</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>26.22%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-14.83%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1486,27 +1486,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>73.76%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>503</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,252,051,703</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>7.25%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-23.82%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>73.76%</t>
         </is>
       </c>
     </row>
@@ -1531,155 +1531,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>70.73%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>41</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$18,078,158</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>21.37%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-17.90%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>70.73%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>81.94%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$366,388,657</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>6.49%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-31.06%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>81.94%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>62.86%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$28,011,214</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>5.20%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-11.22%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>62.86%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>75.00%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>72</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$190,594,606</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>5.31%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-36.66%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>75.00%</t>
         </is>
       </c>
     </row>
@@ -1691,251 +1691,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>57.14%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$33,182,877</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>4.80%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-2.88%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>57.14%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>72.79%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>147</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$353,853,628</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>6.69%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-24.23%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>72.79%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>33.33%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$6,372,205</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>17.05%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>12.58%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>33.33%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$73,766,791</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9.69%</t>
+          <t>$633,363</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-23.75%</t>
+          <t>45.74%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>75.61%</t>
+          <t>-31.73%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>75.61%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$140,770</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>23.98%</t>
+          <t>$73,766,791</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>19.39%</t>
+          <t>9.69%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>25.00%</t>
+          <t>-23.75%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25.00%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$633,363</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>45.74%</t>
+          <t>$140,770</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-31.73%</t>
+          <t>23.98%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>19.39%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>77.33%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$10,545,434</t>
+          <t>75</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>-8.76%</t>
+          <t>$170,484,000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-35.44%</t>
+          <t>5.45%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>75.00%</t>
+          <t>-31.42%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>75.00%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$170,484,000</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.45%</t>
+          <t>$10,545,434</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-31.42%</t>
+          <t>-8.76%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>77.33%</t>
+          <t>-35.44%</t>
         </is>
       </c>
     </row>
@@ -1947,27 +1947,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>73.76%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>503</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$1,252,051,703</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>7.25%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-23.82%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>73.76%</t>
         </is>
       </c>
     </row>
